--- a/TestData/OPR367_ImportManifest_TestData.xlsx
+++ b/TestData/OPR367_ImportManifest_TestData.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-sdutta2\Downloads\testnew\test\iCargoUIAutomation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ssaha1\Desktop\ICargo KT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F6970A-8000-4BC6-B0CC-8515ADE945E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0186E90-B4A4-4F66-BBC4-8A4F56E57F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{5F87B5D1-22B5-4330-A14B-172822C1AF88}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="6" xr2:uid="{A1C109F1-D422-4882-85E4-D7B88ACCB640}"/>
   </bookViews>
   <sheets>
     <sheet name="OPR367_IMP_00001" sheetId="1" r:id="rId1"/>
+    <sheet name="OPR367_IMP_00002" sheetId="2" r:id="rId2"/>
+    <sheet name="OPR367_IMP_00003" sheetId="3" r:id="rId3"/>
+    <sheet name="OPR367_IMP_00004" sheetId="4" r:id="rId4"/>
+    <sheet name="OPR367_IMP_00005" sheetId="5" r:id="rId5"/>
+    <sheet name="OPR367_IMP_00006" sheetId="6" r:id="rId6"/>
+    <sheet name="OPR367_IMP_00007" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,96 +42,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
-  <si>
-    <t>Yes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="31">
+  <si>
+    <t>AgentCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShipperCode </t>
+  </si>
+  <si>
+    <t>ConsigneeCode</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>Commodity</t>
+  </si>
+  <si>
+    <t>ShipmentDescription</t>
+  </si>
+  <si>
+    <t>ServiceCargoClass</t>
+  </si>
+  <si>
+    <t>Piece</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>ChargeType</t>
+  </si>
+  <si>
+    <t>ModeOfPayment</t>
+  </si>
+  <si>
+    <t>AWBSectionName</t>
+  </si>
+  <si>
+    <t>cartType</t>
+  </si>
+  <si>
+    <t>Bdn_Locn</t>
+  </si>
+  <si>
+    <t>Bdn_RcvdPieces</t>
+  </si>
+  <si>
+    <t>Bdn_RcvdWeight</t>
+  </si>
+  <si>
+    <t>SFO</t>
+  </si>
+  <si>
+    <t>LAX</t>
+  </si>
+  <si>
+    <t>GOLDSTREAK</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>NONSCR</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>PlannedShipment</t>
+  </si>
+  <si>
+    <t>CART</t>
   </si>
   <si>
     <t>IDEFLOC</t>
   </si>
   <si>
-    <t>CART</t>
-  </si>
-  <si>
-    <t>PlannedShipment</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>NONSCR</t>
-  </si>
-  <si>
-    <t>GOLDSTREAK</t>
-  </si>
-  <si>
-    <t>LAX</t>
-  </si>
-  <si>
-    <t>SFO</t>
-  </si>
-  <si>
-    <t>Execute</t>
-  </si>
-  <si>
-    <t>Bdn_RcvdWeight</t>
-  </si>
-  <si>
-    <t>Bdn_RcvdPieces</t>
-  </si>
-  <si>
-    <t>Bdn_Locn</t>
-  </si>
-  <si>
-    <t>cartType</t>
-  </si>
-  <si>
-    <t>AWBSectionName</t>
-  </si>
-  <si>
-    <t>ModeOfPayment</t>
-  </si>
-  <si>
-    <t>ChargeType</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Piece</t>
-  </si>
-  <si>
-    <t>ServiceCargoClass</t>
-  </si>
-  <si>
-    <t>ShipmentDescription</t>
-  </si>
-  <si>
-    <t>Commodity</t>
-  </si>
-  <si>
-    <t>SCC</t>
-  </si>
-  <si>
-    <t>ProductCode</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>Origin</t>
-  </si>
-  <si>
-    <t>ConsigneeCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShipperCode </t>
-  </si>
-  <si>
-    <t>AgentCode</t>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>SplitPieces</t>
   </si>
 </sst>
 </file>
@@ -496,91 +505,883 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73685D26-5F0C-437F-8DB5-C2A036ED4165}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E2E772-A512-4A89-A594-4CC800A5B617}">
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" customWidth="1"/>
-    <col min="15" max="15" width="15.7265625" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" customWidth="1"/>
-    <col min="18" max="18" width="15.81640625" customWidth="1"/>
-    <col min="19" max="19" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA87B904-B21D-4375-B24C-17169ADB47B7}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FF8F8D-6296-4636-8E28-9D15C6EE8FC7}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FB7CE3-693C-4D2F-B73B-356DB648FF6D}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>35</v>
+      </c>
+      <c r="L2">
+        <v>234</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2">
+        <v>15</v>
+      </c>
+      <c r="S2">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DF5498-8F0C-47E7-8078-37ADADC91FD6}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>35</v>
+      </c>
+      <c r="L2">
+        <v>234</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2">
+        <v>45</v>
+      </c>
+      <c r="S2">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A7BDD6-FF9E-4523-B55D-517B5C910209}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11377</v>
+      </c>
+      <c r="B2">
+        <v>11377</v>
+      </c>
+      <c r="C2">
+        <v>11377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD4289F-8F9F-4182-9FA3-05EF9CCF1C1C}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
         <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -594,25 +1395,25 @@
         <v>11377</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -621,28 +1422,28 @@
         <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
       </c>
       <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
         <v>59</v>
-      </c>
-      <c r="T2" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/OPR367_ImportManifest_TestData.xlsx
+++ b/TestData/OPR367_ImportManifest_TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ssaha1\Desktop\ICargo KT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ssaha1\Desktop\ICargo KT\Xunit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0186E90-B4A4-4F66-BBC4-8A4F56E57F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEE581B-2356-4F80-A9BC-CFD22AAAFD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="6" xr2:uid="{A1C109F1-D422-4882-85E4-D7B88ACCB640}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="31">
   <si>
     <t>AgentCode</t>
   </si>
@@ -649,15 +649,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA87B904-B21D-4375-B24C-17169ADB47B7}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -701,22 +715,16 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11377</v>
       </c>
@@ -760,18 +768,12 @@
         <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
         <v>27</v>
       </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
         <v>59</v>
       </c>
     </row>
@@ -784,11 +786,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FF8F8D-6296-4636-8E28-9D15C6EE8FC7}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -917,11 +934,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FB7CE3-693C-4D2F-B73B-356DB648FF6D}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1050,11 +1082,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DF5498-8F0C-47E7-8078-37ADADC91FD6}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1183,11 +1230,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A7BDD6-FF9E-4523-B55D-517B5C910209}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1316,11 +1378,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD4289F-8F9F-4182-9FA3-05EF9CCF1C1C}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
